--- a/TuitionManagementService/src/public/tuition-list.xlsx
+++ b/TuitionManagementService/src/public/tuition-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\he_phan_tan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DistributedSystemProject\HePhanTan\TuitionManagementService\src\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>ho va ten</t>
   </si>
@@ -38,10 +38,25 @@
     <t>hoc phi</t>
   </si>
   <si>
-    <t>tranvanhoi</t>
-  </si>
-  <si>
     <t>LTU16B</t>
+  </si>
+  <si>
+    <t>hoang manh thang</t>
+  </si>
+  <si>
+    <t>tran van hoi</t>
+  </si>
+  <si>
+    <t>to quang trung</t>
+  </si>
+  <si>
+    <t>nguyen hai nam</t>
+  </si>
+  <si>
+    <t>mai thanh son</t>
+  </si>
+  <si>
+    <t>trinh quang huy</t>
   </si>
 </sst>
 </file>
@@ -78,8 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,13 +378,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
@@ -390,15 +412,100 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
         <v>20176026</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="C3" s="1">
+        <v>20144186</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20176061</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20176044</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20176052</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20158996</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
         <v>19000000</v>
       </c>
     </row>

--- a/TuitionManagementService/src/public/tuition-list.xlsx
+++ b/TuitionManagementService/src/public/tuition-list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>ho va ten</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>trinh quang huy</t>
+  </si>
+  <si>
+    <t>stt</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -391,8 +394,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -408,7 +411,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -425,7 +428,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -442,7 +445,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -459,7 +462,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -476,7 +479,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -493,7 +496,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
